--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>No</t>
   </si>
@@ -40,64 +40,73 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Abdumalik</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qaytttt</t>
+    <t>asdfsa</t>
+  </si>
+  <si>
+    <t>+998908171355</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sadsdfsa COURIER: erhrg COURIER: vbnvbb</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>vcxzvxzcv</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: xzcvzxcvzxc COURIER: cxvcxv COURIER: fddfgdfg</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>RGGER</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sadfsdaf</t>
+  </si>
+  <si>
+    <t>DELIVERED</t>
+  </si>
+  <si>
+    <t>adsfgd</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfsgds</t>
+  </si>
+  <si>
+    <t>dfsgdfg</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfsgdsfgd</t>
+  </si>
+  <si>
+    <t>trherthre</t>
+  </si>
+  <si>
+    <t>dhghdf</t>
   </si>
   <si>
     <t>REJECTED_DELIVERING</t>
   </si>
   <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qayttdiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
-    <t>Xojiakbar</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: dsfdfdfssdds COURIER: qaaaaaaaaaaaaaaayt</t>
-  </si>
-  <si>
-    <t>REJECTED_NOT_DELIVERED</t>
-  </si>
-  <si>
-    <t>Ma'mur</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bo'ldi qayt</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsj qayt  fdfffldd</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERED</t>
-  </si>
-  <si>
-    <t>Tolib</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bu safar qaytmasang ham qaytassan</t>
-  </si>
-  <si>
-    <t>Abdulla</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qaytardim bu safar aniq</t>
-  </si>
-  <si>
-    <t>Nodir</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: ddsdfsds COURIER: qaydtdi qatib yuborma</t>
+    <t>dbsdfgds</t>
+  </si>
+  <si>
+    <t>hkjhjk</t>
+  </si>
+  <si>
+    <t>vfhsgcx</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfghdfhdf COURIER: vbnvnm</t>
+  </si>
+  <si>
+    <t>fdsfdgdfs</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: gdfsgdfg</t>
   </si>
 </sst>
 </file>
@@ -486,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -544,13 +553,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>4400</v>
+        <v>24431</v>
       </c>
       <c r="H2" s="3">
-        <v>44879.30994954861</v>
+        <v>44879.4188668287</v>
       </c>
       <c r="I2" s="3">
-        <v>44879.31071675926</v>
+        <v>44879.51507050926</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,25 +570,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>51037</v>
+        <v>2333</v>
       </c>
       <c r="H3" s="3">
-        <v>44879.30994954861</v>
+        <v>44879.4188668287</v>
       </c>
       <c r="I3" s="3">
-        <v>44879.31071675926</v>
+        <v>44879.517046354165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -599,16 +608,16 @@
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>400000</v>
+        <v>244444</v>
       </c>
       <c r="H4" s="3">
-        <v>44879.34533827547</v>
+        <v>44879.51347984954</v>
       </c>
       <c r="I4" s="3">
-        <v>44879.34962271991</v>
+        <v>44879.51741836805</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -631,13 +640,13 @@
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>39996</v>
+        <v>46666</v>
       </c>
       <c r="H5" s="3">
-        <v>44879.34533827547</v>
+        <v>44879.458123379634</v>
       </c>
       <c r="I5" s="3">
-        <v>44879.34962271991</v>
+        <v>44879.51741836805</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,28 +654,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>114219</v>
+        <v>97332</v>
       </c>
       <c r="H6" s="3">
-        <v>44879.339765462966</v>
+        <v>44879.458123379634</v>
       </c>
       <c r="I6" s="3">
-        <v>44879.34962342592</v>
+        <v>44879.51741836805</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,25 +686,25 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
-        <v>65000</v>
+        <v>60000</v>
       </c>
       <c r="G7" s="2">
-        <v>4000</v>
+        <v>66666</v>
       </c>
       <c r="H7" s="3">
-        <v>44879.339765462966</v>
+        <v>44878.21150262731</v>
       </c>
       <c r="I7" s="3">
-        <v>44879.34962342592</v>
+        <v>44878.21542096065</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,28 +712,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F8" s="2">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="G8" s="2">
-        <v>444444</v>
+        <v>46666</v>
       </c>
       <c r="H8" s="3">
-        <v>44879.33063252315</v>
+        <v>44878.21000146991</v>
       </c>
       <c r="I8" s="3">
-        <v>44879.337372395836</v>
+        <v>44879.216222557865</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -732,28 +741,57 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
         <v>60000</v>
       </c>
       <c r="G9" s="2">
-        <v>66666</v>
+        <v>46666</v>
       </c>
       <c r="H9" s="3">
-        <v>44879.33063252315</v>
+        <v>44879.35947390046</v>
       </c>
       <c r="I9" s="3">
-        <v>44879.337372395836</v>
+        <v>44879.36068572917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10032</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44879.42192043981</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44879.42306930556</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>STORE_OWNER: ddsdfsds COURIER: qaydtdi qatib yuborma</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: qaytyyyyyyyyyyy</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsdfs</t>
+  </si>
+  <si>
+    <t>PENDING</t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -756,6 +768,64 @@
         <v>44879.337372395836</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44879.50984293981</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44879.51104648148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2">
+        <v>65000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44879.50984293981</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44879.51131158565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -40,64 +40,64 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Abdumalik</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qaytttt</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERING</t>
-  </si>
-  <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qayttdiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
-    <t>Xojiakbar</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: dsfdfdfssdds COURIER: qaaaaaaaaaaaaaaayt</t>
-  </si>
-  <si>
-    <t>REJECTED_NOT_DELIVERED</t>
-  </si>
-  <si>
-    <t>Ma'mur</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bo'ldi qayt</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsj qayt  fdfffldd</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERED</t>
-  </si>
-  <si>
-    <t>Tolib</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bu safar qaytmasang ham qaytassan</t>
-  </si>
-  <si>
-    <t>Abdulla</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qaytardim bu safar aniq</t>
-  </si>
-  <si>
-    <t>Nodir</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: ddsdfsds COURIER: qaydtdi qatib yuborma</t>
+    <t>ewfewrew</t>
+  </si>
+  <si>
+    <t>+998939950136</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dsfsdf</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>sdfdsf</t>
+  </si>
+  <si>
+    <t>+998935231456</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fsfdsf</t>
+  </si>
+  <si>
+    <t>sdfdsfdf</t>
+  </si>
+  <si>
+    <t>+998939950105</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sfsdf</t>
+  </si>
+  <si>
+    <t>fsfdsf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 234</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 232</t>
+  </si>
+  <si>
+    <t>sdfdsfsdf</t>
+  </si>
+  <si>
+    <t>+998912345678</t>
+  </si>
+  <si>
+    <t>sdfdsfdsf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sfsdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>+998939950103</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sdfsdf</t>
   </si>
 </sst>
 </file>
@@ -544,13 +544,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>4400</v>
+        <v>751548</v>
       </c>
       <c r="H2" s="3">
-        <v>44879.30994954861</v>
+        <v>44880.17166738426</v>
       </c>
       <c r="I2" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.17179278935</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -570,16 +570,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>51037</v>
+        <v>750329</v>
       </c>
       <c r="H3" s="3">
-        <v>44879.30994954861</v>
+        <v>44880.17166738426</v>
       </c>
       <c r="I3" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.17182459491</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -590,25 +590,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>400000</v>
+        <v>5203036</v>
       </c>
       <c r="H4" s="3">
-        <v>44879.34533827547</v>
+        <v>44880.17284017361</v>
       </c>
       <c r="I4" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.17618328704</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -625,19 +625,19 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>39996</v>
+        <v>53935</v>
       </c>
       <c r="H5" s="3">
-        <v>44879.34533827547</v>
+        <v>44880.17284017361</v>
       </c>
       <c r="I5" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.176198009256</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,28 +645,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>114219</v>
+        <v>749824</v>
       </c>
       <c r="H6" s="3">
-        <v>44879.339765462966</v>
+        <v>44880.17719960648</v>
       </c>
       <c r="I6" s="3">
-        <v>44879.34962342592</v>
+        <v>44880.18261362269</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -674,28 +674,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="2">
-        <v>4000</v>
+        <v>750329</v>
       </c>
       <c r="H7" s="3">
-        <v>44879.339765462966</v>
+        <v>44880.17719960648</v>
       </c>
       <c r="I7" s="3">
-        <v>44879.34962342592</v>
+        <v>44880.18262724537</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,28 +703,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>50000</v>
       </c>
       <c r="G8" s="2">
-        <v>444444</v>
+        <v>711106</v>
       </c>
       <c r="H8" s="3">
-        <v>44879.33063252315</v>
+        <v>44880.17719960648</v>
       </c>
       <c r="I8" s="3">
-        <v>44879.337372395836</v>
+        <v>44880.18264165509</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -732,28 +732,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="2">
-        <v>66666</v>
+        <v>103424</v>
       </c>
       <c r="H9" s="3">
-        <v>44879.33063252315</v>
+        <v>44880.17719960648</v>
       </c>
       <c r="I9" s="3">
-        <v>44879.337372395836</v>
+        <v>44880.18265171297</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>No</t>
   </si>
@@ -40,64 +40,37 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Abdumalik</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qaytttt</t>
+    <t>Furqat</t>
+  </si>
+  <si>
+    <t>+998952003060</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezlik bilancdcd</t>
+  </si>
+  <si>
+    <t>DELIVERING</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezlik bilancdcd COURIER: null</t>
   </si>
   <si>
     <t>REJECTED_DELIVERING</t>
   </si>
   <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qayttdiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
-    <t>Xojiakbar</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: dsfdfdfssdds COURIER: qaaaaaaaaaaaaaaayt</t>
-  </si>
-  <si>
-    <t>REJECTED_NOT_DELIVERED</t>
-  </si>
-  <si>
-    <t>Ma'mur</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bo'ldi qayt</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsj qayt  fdfffldd</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERED</t>
-  </si>
-  <si>
-    <t>Tolib</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bu safar qaytmasang ham qaytassan</t>
-  </si>
-  <si>
-    <t>Abdulla</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qaytardim bu safar aniq</t>
-  </si>
-  <si>
-    <t>Nodir</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: ddsdfsds COURIER: qaydtdi qatib yuborma</t>
+    <t>+998995666625</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tezlik bilan COURIER: null</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tezlik bilan COURIER: scsc</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezlik bilan COURIER: vfdvdsq</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezlik bilan COURIER: null</t>
   </si>
 </sst>
 </file>
@@ -486,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -544,13 +517,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>4400</v>
+        <v>145452</v>
       </c>
       <c r="H2" s="3">
-        <v>44879.30994954861</v>
+        <v>44879.57180164352</v>
       </c>
       <c r="I2" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.17207951389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -558,28 +531,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>51037</v>
+        <v>55468</v>
       </c>
       <c r="H3" s="3">
-        <v>44879.30994954861</v>
+        <v>44879.54474481482</v>
       </c>
       <c r="I3" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.18635405092</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -587,28 +560,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>400000</v>
+        <v>785460</v>
       </c>
       <c r="H4" s="3">
-        <v>44879.34533827547</v>
+        <v>44879.54474482639</v>
       </c>
       <c r="I4" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.18635405092</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -616,28 +589,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>39996</v>
+        <v>2545410</v>
       </c>
       <c r="H5" s="3">
-        <v>44879.34533827547</v>
+        <v>44880.17401777778</v>
       </c>
       <c r="I5" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.26655721065</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -645,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>114219</v>
+        <v>2787876</v>
       </c>
       <c r="H6" s="3">
-        <v>44879.339765462966</v>
+        <v>44880.1740177662</v>
       </c>
       <c r="I6" s="3">
-        <v>44879.34962342592</v>
+        <v>44880.26655721065</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -674,28 +647,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="2">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="2">
-        <v>4000</v>
+        <v>20596670</v>
       </c>
       <c r="H7" s="3">
-        <v>44879.339765462966</v>
+        <v>44880.21452136574</v>
       </c>
       <c r="I7" s="3">
-        <v>44879.34962342592</v>
+        <v>44880.26655721065</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -703,57 +676,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F8" s="2">
         <v>50000</v>
       </c>
       <c r="G8" s="2">
-        <v>444444</v>
+        <v>44618700</v>
       </c>
       <c r="H8" s="3">
-        <v>44879.33063252315</v>
+        <v>44880.21452136574</v>
       </c>
       <c r="I8" s="3">
-        <v>44879.337372395836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>66666</v>
-      </c>
-      <c r="H9" s="3">
-        <v>44879.33063252315</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44879.337372395836</v>
+        <v>44880.26655721065</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -40,76 +40,70 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
+    <t>Mashrab</t>
+  </si>
+  <si>
+    <t>+998946775454</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sinadigan narsa bor</t>
+  </si>
+  <si>
+    <t>DELIVERED</t>
+  </si>
+  <si>
+    <t>Bobur</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: arzonroq narsa COURIER: kutilmoqad</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Baxrom</t>
+  </si>
+  <si>
+    <t>+998936979876</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: SOTILDI</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>Suxrob</t>
+  </si>
+  <si>
+    <t>+998945677655</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: rergrg COURIER: dsgdrfd</t>
+  </si>
+  <si>
     <t>Abdumalik</t>
   </si>
   <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qaytttt</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERING</t>
-  </si>
-  <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qayttdiiiiiiiiiiiiiiiii</t>
-  </si>
-  <si>
-    <t>Xojiakbar</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: dsfdfdfssdds COURIER: qaaaaaaaaaaaaaaayt</t>
-  </si>
-  <si>
-    <t>REJECTED_NOT_DELIVERED</t>
-  </si>
-  <si>
-    <t>Ma'mur</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bo'ldi qayt</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsj qayt  fdfffldd</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERED</t>
-  </si>
-  <si>
-    <t>Tolib</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: bu safar qaytmasang ham qaytassan</t>
-  </si>
-  <si>
-    <t>Abdulla</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qaytardim bu safar aniq</t>
-  </si>
-  <si>
-    <t>Nodir</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: ddsdfsds COURIER: qaydtdi qatib yuborma</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient2 COURIER: qaytyyyyyyyyyyy</t>
+    <t>+998946777865</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: qat=yt</t>
   </si>
   <si>
     <t>REJECTED</t>
   </si>
   <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: dfsdfs</t>
-  </si>
-  <si>
-    <t>PENDING</t>
+    <t>STORE_OWNER: Tezroq olib kellarin</t>
+  </si>
+  <si>
+    <t>Bunyod</t>
+  </si>
+  <si>
+    <t>+998936979875</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -498,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -556,13 +550,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>4400</v>
+        <v>1486562</v>
       </c>
       <c r="H2" s="3">
-        <v>44879.30994954861</v>
+        <v>44880.49430554398</v>
       </c>
       <c r="I2" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.49517023149</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,25 +567,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>51037</v>
+        <v>1430319</v>
       </c>
       <c r="H3" s="3">
-        <v>44879.30994954861</v>
+        <v>44880.49430554398</v>
       </c>
       <c r="I3" s="3">
-        <v>44879.31071675926</v>
+        <v>44880.50429887732</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -602,25 +596,25 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>400000</v>
+        <v>111704296</v>
       </c>
       <c r="H4" s="3">
-        <v>44879.34533827547</v>
+        <v>44880.49430550926</v>
       </c>
       <c r="I4" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.50671046296</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -628,28 +622,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>39996</v>
+        <v>10624</v>
       </c>
       <c r="H5" s="3">
-        <v>44879.34533827547</v>
+        <v>44880.494305520835</v>
       </c>
       <c r="I5" s="3">
-        <v>44879.34962271991</v>
+        <v>44880.51017487269</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -657,28 +651,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>114219</v>
+        <v>1150296</v>
       </c>
       <c r="H6" s="3">
-        <v>44879.339765462966</v>
+        <v>44880.494305520835</v>
       </c>
       <c r="I6" s="3">
-        <v>44879.34962342592</v>
+        <v>44880.51154866898</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -689,25 +683,25 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
-        <v>65000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="2">
-        <v>4000</v>
+        <v>76590000</v>
       </c>
       <c r="H7" s="3">
-        <v>44879.339765462966</v>
+        <v>44881.223896446754</v>
       </c>
       <c r="I7" s="3">
-        <v>44879.34962342592</v>
+        <v>44881.22546621528</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,115 +709,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
-        <v>444444</v>
+        <v>116756</v>
       </c>
       <c r="H8" s="3">
-        <v>44879.33063252315</v>
+        <v>44881.24546290509</v>
       </c>
       <c r="I8" s="3">
-        <v>44879.337372395836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2">
-        <v>60000</v>
-      </c>
-      <c r="G9" s="2">
-        <v>66666</v>
-      </c>
-      <c r="H9" s="3">
-        <v>44879.33063252315</v>
-      </c>
-      <c r="I9" s="3">
-        <v>44879.337372395836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>44879.50984293981</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44879.51104648148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2">
-        <v>65000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>44879.50984293981</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44879.51131158565</v>
+        <v>44881.2454641088</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -40,70 +40,55 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Mashrab</t>
-  </si>
-  <si>
-    <t>+998946775454</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: sinadigan narsa bor</t>
+    <t>dgfsdgdf</t>
+  </si>
+  <si>
+    <t>+998908171355</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sdfgdsfg</t>
   </si>
   <si>
     <t>DELIVERED</t>
   </si>
   <si>
-    <t>Bobur</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: arzonroq narsa COURIER: kutilmoqad</t>
+    <t>fdsgsdfg</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fdsdfsdf</t>
+  </si>
+  <si>
+    <t>sdfgsdf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: bjkbbbhjs</t>
+  </si>
+  <si>
+    <t>dfgdsg</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: bnjhbhjb COURIER: sdfsdfds</t>
+  </si>
+  <si>
+    <t>REJECTED_DELIVERING</t>
+  </si>
+  <si>
+    <t>bfdfbs</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: nhbdfbhvbf COURIER: dgdfg</t>
   </si>
   <si>
     <t>PENDING</t>
   </si>
   <si>
-    <t>Baxrom</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: SOTILDI</t>
+    <t>sdgdfsgq</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fdsfsdf COURIER: sfsafs</t>
   </si>
   <si>
     <t>SOLD</t>
-  </si>
-  <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: rergrg COURIER: dsgdrfd</t>
-  </si>
-  <si>
-    <t>Abdumalik</t>
-  </si>
-  <si>
-    <t>+998946777865</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: tez kelsin COURIER: qat=yt</t>
-  </si>
-  <si>
-    <t>REJECTED</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin</t>
-  </si>
-  <si>
-    <t>Bunyod</t>
-  </si>
-  <si>
-    <t>+998936979875</t>
-  </si>
-  <si>
-    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -492,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -550,13 +535,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>1486562</v>
+        <v>12222</v>
       </c>
       <c r="H2" s="3">
-        <v>44880.49430554398</v>
+        <v>44881.44031289352</v>
       </c>
       <c r="I2" s="3">
-        <v>44880.49517023149</v>
+        <v>44881.443963356476</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -573,19 +558,19 @@
         <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>1430319</v>
+        <v>10000</v>
       </c>
       <c r="H3" s="3">
-        <v>44880.49430554398</v>
+        <v>44881.449103900464</v>
       </c>
       <c r="I3" s="3">
-        <v>44880.50429887732</v>
+        <v>44881.450163761576</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,28 +578,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>111704296</v>
+        <v>122219</v>
       </c>
       <c r="H4" s="3">
-        <v>44880.49430550926</v>
+        <v>44881.449103900464</v>
       </c>
       <c r="I4" s="3">
-        <v>44880.50671046296</v>
+        <v>44881.450163761576</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,13 +607,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -637,13 +622,13 @@
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>10624</v>
+        <v>1222</v>
       </c>
       <c r="H5" s="3">
-        <v>44880.494305520835</v>
+        <v>44881.44031289352</v>
       </c>
       <c r="I5" s="3">
-        <v>44880.51017487269</v>
+        <v>44881.4628338426</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,28 +636,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>1150296</v>
+        <v>12222</v>
       </c>
       <c r="H6" s="3">
-        <v>44880.494305520835</v>
+        <v>44881.44031289352</v>
       </c>
       <c r="I6" s="3">
-        <v>44880.51154866898</v>
+        <v>44881.46646645833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,51 +668,25 @@
         <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>50000</v>
       </c>
       <c r="G7" s="2">
-        <v>76590000</v>
+        <v>111111</v>
       </c>
       <c r="H7" s="3">
-        <v>44881.223896446754</v>
+        <v>44881.44031289352</v>
       </c>
       <c r="I7" s="3">
-        <v>44881.22546621528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2">
-        <v>116756</v>
-      </c>
-      <c r="H8" s="3">
-        <v>44881.24546290509</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44881.2454641088</v>
+        <v>44881.521820486116</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -46,40 +46,55 @@
     <t>+998946775454</t>
   </si>
   <si>
-    <t>STORE_OWNER: sinadigan narsa bor</t>
+    <t>STORE_OWNER: sinadigan narsa bor COURIER: Sotildi</t>
+  </si>
+  <si>
+    <t>SOLD</t>
+  </si>
+  <si>
+    <t>Baxrom</t>
+  </si>
+  <si>
+    <t>+998936979876</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: Kutyapman</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Suxrob</t>
+  </si>
+  <si>
+    <t>+998945677655</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2</t>
   </si>
   <si>
     <t>DELIVERED</t>
   </si>
   <si>
+    <t>Abdulla</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: qayyyyt</t>
+  </si>
+  <si>
+    <t>REJECTED_DELIVERING</t>
+  </si>
+  <si>
     <t>Bobur</t>
   </si>
   <si>
-    <t>STORE_OWNER: arzonroq narsa COURIER: kutilmoqad</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>Baxrom</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: SOTILDI</t>
-  </si>
-  <si>
-    <t>SOLD</t>
-  </si>
-  <si>
-    <t>Suxrob</t>
-  </si>
-  <si>
-    <t>+998945677655</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: rergrg COURIER: dsgdrfd</t>
+    <t>STORE_OWNER: arzonroq narsa COURIER: qayttt</t>
+  </si>
+  <si>
+    <t>Bunyod</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qayttttt</t>
   </si>
   <si>
     <t>Abdumalik</t>
@@ -88,22 +103,34 @@
     <t>+998946777865</t>
   </si>
   <si>
-    <t>STORE_OWNER: tez kelsin COURIER: qat=yt</t>
+    <t>STORE_OWNER: tez kelsin COURIER: qayttttt</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: arzonroq narsa COURIER: qaytt</t>
+  </si>
+  <si>
+    <t>Umrzoq</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: ish chiqb qoldi COURIER: qayt</t>
   </si>
   <si>
     <t>REJECTED</t>
   </si>
   <si>
+    <t>+998936979874</t>
+  </si>
+  <si>
     <t>STORE_OWNER: Tezroq olib kellarin</t>
   </si>
   <si>
-    <t>Bunyod</t>
-  </si>
-  <si>
-    <t>+998936979875</t>
-  </si>
-  <si>
-    <t>NEW</t>
+    <t>STORE_OWNER: sinadigan narsa bor COURIER: qayt</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: kutmoqdd</t>
   </si>
 </sst>
 </file>
@@ -492,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -547,16 +574,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G2" s="2">
-        <v>1486562</v>
+        <v>19536</v>
       </c>
       <c r="H2" s="3">
-        <v>44880.49430554398</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I2" s="3">
-        <v>44880.49517023149</v>
+        <v>44881.46914159722</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -567,25 +594,25 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>1430319</v>
+        <v>666</v>
       </c>
       <c r="H3" s="3">
-        <v>44880.49430554398</v>
+        <v>44881.46864298611</v>
       </c>
       <c r="I3" s="3">
-        <v>44880.50429887732</v>
+        <v>44881.4692121875</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,28 +620,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G4" s="2">
-        <v>111704296</v>
+        <v>130032</v>
       </c>
       <c r="H4" s="3">
-        <v>44880.49430550926</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I4" s="3">
-        <v>44880.50671046296</v>
+        <v>44881.28376467593</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,28 +649,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
         <v>50000</v>
       </c>
       <c r="G5" s="2">
-        <v>10624</v>
+        <v>100756224</v>
       </c>
       <c r="H5" s="3">
-        <v>44880.494305520835</v>
+        <v>44881.46864299769</v>
       </c>
       <c r="I5" s="3">
-        <v>44880.51017487269</v>
+        <v>44881.48370956018</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,28 +678,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>50000</v>
       </c>
       <c r="G6" s="2">
-        <v>1150296</v>
+        <v>9969</v>
       </c>
       <c r="H6" s="3">
-        <v>44880.494305520835</v>
+        <v>44881.27149604166</v>
       </c>
       <c r="I6" s="3">
-        <v>44880.51154866898</v>
+        <v>44881.49838420139</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,28 +707,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>50000</v>
       </c>
       <c r="G7" s="2">
-        <v>76590000</v>
+        <v>117096</v>
       </c>
       <c r="H7" s="3">
-        <v>44881.223896446754</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I7" s="3">
-        <v>44881.22546621528</v>
+        <v>44881.285109247685</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -715,19 +742,225 @@
         <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50000</v>
       </c>
       <c r="G8" s="2">
+        <v>969</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44881.285109247685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>186792</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44881.27319836806</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44881.28531583333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9993</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44881.39755275463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G11" s="2">
         <v>116756</v>
       </c>
-      <c r="H8" s="3">
-        <v>44881.24546290509</v>
-      </c>
-      <c r="I8" s="3">
-        <v>44881.2454641088</v>
+      <c r="H11" s="3">
+        <v>44881.39934885417</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44881.402063773145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9699</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44881.4146977662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10656</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44881.271496030095</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44881.279108414354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1451296</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44881.27319835648</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44881.466632083335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>773256</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44881.3988674537</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44881.46670815972</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>No</t>
   </si>
@@ -40,16 +40,16 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Bobur</t>
+    <t>Mashrab</t>
   </si>
   <si>
     <t>+998946775454</t>
   </si>
   <si>
-    <t>STORE_OWNER: arzonroq narsa COURIER: qaytt</t>
-  </si>
-  <si>
-    <t>REJECTED_DELIVERING</t>
+    <t>STORE_OWNER: sinadigan narsa bor COURIER: Sotildi</t>
+  </si>
+  <si>
+    <t>SOLD</t>
   </si>
   <si>
     <t>Baxrom</t>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
-  </si>
-  <si>
-    <t>SOLD</t>
   </si>
 </sst>
 </file>
@@ -450,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -505,16 +502,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G2" s="2">
-        <v>186792</v>
+        <v>19536</v>
       </c>
       <c r="H2" s="3">
-        <v>44881.27319836806</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I2" s="3">
-        <v>44881.28531583333</v>
+        <v>44881.46914159722</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -531,7 +528,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>50000</v>
@@ -544,6 +541,35 @@
       </c>
       <c r="I3" s="3">
         <v>44881.279108414354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G4" s="2">
+        <v>773256</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44881.3988674537</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44881.46670815972</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -52,13 +52,148 @@
     <t>SOLD</t>
   </si>
   <si>
+    <t>Vali</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfrd</t>
+  </si>
+  <si>
+    <t>NOT_EXIST</t>
+  </si>
+  <si>
+    <t>Abdulla</t>
+  </si>
+  <si>
+    <t>+998945677655</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: qayyyyt</t>
+  </si>
+  <si>
+    <t>REJECTED_DELIVERING</t>
+  </si>
+  <si>
+    <t>Bobur</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: arzonroq narsa COURIER: qayttt</t>
+  </si>
+  <si>
+    <t>Bunyod</t>
+  </si>
+  <si>
+    <t>+998936979876</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qayttttt</t>
+  </si>
+  <si>
+    <t>Abdumalik</t>
+  </si>
+  <si>
+    <t>+998946777865</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: qayttttt</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: arzonroq narsa COURIER: qaytt</t>
+  </si>
+  <si>
+    <t>+998936979874</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: qayt</t>
+  </si>
+  <si>
+    <t>Suxrob</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: kutyapman</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Abbos</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fdgd</t>
+  </si>
+  <si>
+    <t>NOT_DELIVERED</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sinadigan narsa bor COURIER: qayt</t>
+  </si>
+  <si>
     <t>Baxrom</t>
   </si>
   <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
     <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: kutmoqdd</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient1</t>
+  </si>
+  <si>
+    <t>Umrzoq</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 4334</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin</t>
+  </si>
+  <si>
+    <t>DELIVERING</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: Kutyapman COURIER: qaytt</t>
+  </si>
+  <si>
+    <t>Husan</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: gddffd</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sinadigan narsa bor</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfdd</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sfdf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: arzonroq narsa</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient2 COURIER: ish chiqb qoldi COURIER: qayt</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: qaytarvomman</t>
+  </si>
+  <si>
+    <t>Doston</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: dfsfds</t>
   </si>
 </sst>
 </file>
@@ -447,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I28"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -522,25 +657,22 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>50000</v>
-      </c>
       <c r="G3" s="2">
-        <v>10656</v>
+        <v>11991</v>
       </c>
       <c r="H3" s="3">
-        <v>44881.271496030095</v>
+        <v>44882.37954844907</v>
       </c>
       <c r="I3" s="3">
-        <v>44881.279108414354</v>
+        <v>44882.38073315972</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -548,28 +680,721 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>50000</v>
       </c>
       <c r="G4" s="2">
+        <v>100756224</v>
+      </c>
+      <c r="H4" s="3">
+        <v>44881.46864299769</v>
+      </c>
+      <c r="I4" s="3">
+        <v>44881.48370956018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>9969</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44881.49838420139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>117096</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44881.27319835648</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44881.285109247685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>969</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44881.285109247685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>186792</v>
+      </c>
+      <c r="H8" s="3">
+        <v>44881.27319836806</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44881.28531583333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G9" s="2">
+        <v>116756</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44881.39934885417</v>
+      </c>
+      <c r="I9" s="3">
+        <v>44882.211099479166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G10" s="2">
+        <v>130032</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44881.27319835648</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44882.374359953705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80000</v>
+      </c>
+      <c r="G11" s="2">
+        <v>82250000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>44882.37954847222</v>
+      </c>
+      <c r="I11" s="3">
+        <v>44882.39731001157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>9699</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44881.4146977662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10656</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44881.271496030095</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44881.279108414354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1451296</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44881.27319835648</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44881.466632083335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G15" s="2">
         <v>773256</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H15" s="3">
         <v>44881.3988674537</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I15" s="3">
         <v>44881.46670815972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G16" s="2">
+        <v>114709962</v>
+      </c>
+      <c r="H16" s="3">
+        <v>44882.39868972222</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44882.39954565972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G17" s="2">
+        <v>150920</v>
+      </c>
+      <c r="H17" s="3">
+        <v>44882.39868972222</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44882.39954565972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G18" s="2">
+        <v>11124216</v>
+      </c>
+      <c r="H18" s="3">
+        <v>44882.37954841435</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44882.38128935185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G19" s="2">
+        <v>666</v>
+      </c>
+      <c r="H19" s="3">
+        <v>44881.46864298611</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44882.435718657405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="2">
+        <v>70000</v>
+      </c>
+      <c r="G20" s="2">
+        <v>17728</v>
+      </c>
+      <c r="H20" s="3">
+        <v>44882.3795484838</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44882.38138763889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>186362</v>
+      </c>
+      <c r="H21" s="3">
+        <v>44882.379548425924</v>
+      </c>
+      <c r="I21" s="3">
+        <v>44882.3805769676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="2">
+        <v>70000</v>
+      </c>
+      <c r="G22" s="2">
+        <v>147619</v>
+      </c>
+      <c r="H22" s="3">
+        <v>44882.3795484375</v>
+      </c>
+      <c r="I22" s="3">
+        <v>44882.380637939816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2">
+        <v>55000</v>
+      </c>
+      <c r="G23" s="2">
+        <v>9993</v>
+      </c>
+      <c r="H23" s="3">
+        <v>44882.37954846065</v>
+      </c>
+      <c r="I23" s="3">
+        <v>44882.38162530093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17768</v>
+      </c>
+      <c r="H24" s="3">
+        <v>44882.3795484838</v>
+      </c>
+      <c r="I24" s="3">
+        <v>44882.3820600926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="2">
+        <v>75000</v>
+      </c>
+      <c r="G25" s="2">
+        <v>99999</v>
+      </c>
+      <c r="H25" s="3">
+        <v>44882.37954844907</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44882.38382960648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="2">
+        <v>9993</v>
+      </c>
+      <c r="H26" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I26" s="3">
+        <v>44882.38456917824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G27" s="2">
+        <v>147696</v>
+      </c>
+      <c r="H27" s="3">
+        <v>44882.379548425924</v>
+      </c>
+      <c r="I27" s="3">
+        <v>44882.38456917824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="2">
+        <v>70000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>90000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44882.37954847222</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44882.39387393519</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -106,58 +106,61 @@
     <t>STORE_OWNER: Tezroq olib kellarin COURIER: qayt</t>
   </si>
   <si>
+    <t>Abbos</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fdgd</t>
+  </si>
+  <si>
+    <t>NOT_DELIVERED</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: sinadigan narsa bor COURIER: qayt</t>
+  </si>
+  <si>
+    <t>Baxrom</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: tez kelsin COURIER: kutmoqdd</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: klient1</t>
+  </si>
+  <si>
+    <t>Umrzoq</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 4334</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin</t>
+  </si>
+  <si>
+    <t>DELIVERING</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: Tezroq olib kellarin COURIER: Kutyapman COURIER: qaytt</t>
+  </si>
+  <si>
+    <t>Husan</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: gddffd</t>
+  </si>
+  <si>
     <t>Suxrob</t>
   </si>
   <si>
-    <t>STORE_OWNER: klient2 COURIER: kutyapman</t>
-  </si>
-  <si>
-    <t>PENDING</t>
-  </si>
-  <si>
-    <t>Abbos</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: fdgd</t>
-  </si>
-  <si>
-    <t>NOT_DELIVERED</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: sinadigan narsa bor COURIER: qayt</t>
-  </si>
-  <si>
-    <t>Baxrom</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: tez kelsin COURIER: kutmoqdd</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient1</t>
-  </si>
-  <si>
-    <t>Umrzoq</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: 4334</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin</t>
-  </si>
-  <si>
-    <t>DELIVERING</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: Tezroq olib kellarin COURIER: Kutyapman COURIER: qaytt</t>
-  </si>
-  <si>
-    <t>Husan</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: gddffd</t>
+    <t>STORE_OWNER: klient2 COURIER: kutyapman COURIER: qayyyyt</t>
+  </si>
+  <si>
+    <t>REJECTED</t>
   </si>
   <si>
     <t>STORE_OWNER: klient2</t>
@@ -175,10 +178,16 @@
     <t>STORE_OWNER: dfdd</t>
   </si>
   <si>
+    <t>NEW</t>
+  </si>
+  <si>
     <t>Hasan</t>
   </si>
   <si>
     <t>STORE_OWNER: sfdf</t>
+  </si>
+  <si>
+    <t>Ma'mur</t>
   </si>
   <si>
     <t>STORE_OWNER: arzonroq narsa</t>
@@ -582,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -857,7 +866,7 @@
         <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
@@ -866,16 +875,16 @@
         <v>33</v>
       </c>
       <c r="F10" s="2">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G10" s="2">
-        <v>130032</v>
+        <v>82250000</v>
       </c>
       <c r="H10" s="3">
-        <v>44881.27319835648</v>
+        <v>44882.37954847222</v>
       </c>
       <c r="I10" s="3">
-        <v>44882.374359953705</v>
+        <v>44882.39731001157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,28 +892,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="G11" s="2">
-        <v>82250000</v>
+        <v>9699</v>
       </c>
       <c r="H11" s="3">
-        <v>44882.37954847222</v>
+        <v>44881.27149604166</v>
       </c>
       <c r="I11" s="3">
-        <v>44882.39731001157</v>
+        <v>44881.4146977662</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,28 +921,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>50000</v>
       </c>
       <c r="G12" s="2">
-        <v>9699</v>
+        <v>10656</v>
       </c>
       <c r="H12" s="3">
-        <v>44881.27149604166</v>
+        <v>44881.271496030095</v>
       </c>
       <c r="I12" s="3">
-        <v>44881.4146977662</v>
+        <v>44881.279108414354</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,28 +950,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>50000</v>
       </c>
       <c r="G13" s="2">
-        <v>10656</v>
+        <v>1451296</v>
       </c>
       <c r="H13" s="3">
-        <v>44881.271496030095</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I13" s="3">
-        <v>44881.279108414354</v>
+        <v>44881.466632083335</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,28 +979,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>50000</v>
       </c>
       <c r="G14" s="2">
-        <v>1451296</v>
+        <v>773256</v>
       </c>
       <c r="H14" s="3">
-        <v>44881.27319835648</v>
+        <v>44881.3988674537</v>
       </c>
       <c r="I14" s="3">
-        <v>44881.466632083335</v>
+        <v>44881.46670815972</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -999,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>23</v>
@@ -1008,19 +1017,19 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2">
         <v>50000</v>
       </c>
       <c r="G15" s="2">
-        <v>773256</v>
+        <v>114709962</v>
       </c>
       <c r="H15" s="3">
-        <v>44881.3988674537</v>
+        <v>44882.39868972222</v>
       </c>
       <c r="I15" s="3">
-        <v>44881.46670815972</v>
+        <v>44882.39954565972</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,22 +1037,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="2">
-        <v>114709962</v>
+        <v>150920</v>
       </c>
       <c r="H16" s="3">
         <v>44882.39868972222</v>
@@ -1057,28 +1066,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F17" s="2">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="G17" s="2">
-        <v>150920</v>
+        <v>11124216</v>
       </c>
       <c r="H17" s="3">
-        <v>44882.39868972222</v>
+        <v>44882.37954841435</v>
       </c>
       <c r="I17" s="3">
-        <v>44882.39954565972</v>
+        <v>44882.38128935185</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -1095,19 +1104,19 @@
         <v>44</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F18" s="2">
         <v>50000</v>
       </c>
       <c r="G18" s="2">
-        <v>11124216</v>
+        <v>666</v>
       </c>
       <c r="H18" s="3">
-        <v>44882.37954841435</v>
+        <v>44881.46864298611</v>
       </c>
       <c r="I18" s="3">
-        <v>44882.38128935185</v>
+        <v>44882.435718657405</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,28 +1124,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G19" s="2">
-        <v>666</v>
+        <v>17728</v>
       </c>
       <c r="H19" s="3">
-        <v>44881.46864298611</v>
+        <v>44882.3795484838</v>
       </c>
       <c r="I19" s="3">
-        <v>44882.435718657405</v>
+        <v>44882.38138763889</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1147,25 +1156,25 @@
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="2">
-        <v>17728</v>
+        <v>130032</v>
       </c>
       <c r="H20" s="3">
-        <v>44882.3795484838</v>
+        <v>44881.27319835648</v>
       </c>
       <c r="I20" s="3">
-        <v>44882.38138763889</v>
+        <v>44882.47339197916</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,13 +1182,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>15</v>
@@ -1205,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2">
         <v>70000</v>
@@ -1228,16 +1237,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2">
         <v>55000</v>
@@ -1257,28 +1266,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2">
-        <v>60000</v>
-      </c>
       <c r="G24" s="2">
-        <v>17768</v>
+        <v>9999</v>
       </c>
       <c r="H24" s="3">
-        <v>44882.3795484838</v>
+        <v>44882.480432048615</v>
       </c>
       <c r="I24" s="3">
-        <v>44882.3820600926</v>
+        <v>44882.48043335648</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1286,28 +1292,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2">
-        <v>75000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="2">
-        <v>99999</v>
+        <v>17768</v>
       </c>
       <c r="H25" s="3">
-        <v>44882.37954844907</v>
+        <v>44882.3795484838</v>
       </c>
       <c r="I25" s="3">
-        <v>44882.38382960648</v>
+        <v>44882.3820600926</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1315,28 +1321,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="2">
-        <v>50000</v>
+        <v>55</v>
       </c>
       <c r="G26" s="2">
-        <v>9993</v>
+        <v>1526916</v>
       </c>
       <c r="H26" s="3">
-        <v>44881.27149604166</v>
+        <v>44882.48043206018</v>
       </c>
       <c r="I26" s="3">
-        <v>44882.38456917824</v>
+        <v>44882.480433680554</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1344,28 +1347,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F27" s="2">
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="G27" s="2">
-        <v>147696</v>
+        <v>99999</v>
       </c>
       <c r="H27" s="3">
-        <v>44882.379548425924</v>
+        <v>44882.37954844907</v>
       </c>
       <c r="I27" s="3">
-        <v>44882.38456917824</v>
+        <v>44882.38382960648</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1373,27 +1376,85 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F28" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>9993</v>
+      </c>
+      <c r="H28" s="3">
+        <v>44881.27149604166</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44882.38456917824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2">
+        <v>60000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>147696</v>
+      </c>
+      <c r="H29" s="3">
+        <v>44882.379548425924</v>
+      </c>
+      <c r="I29" s="3">
+        <v>44882.38456917824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="2">
         <v>70000</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G30" s="2">
         <v>90000</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H30" s="3">
         <v>44882.37954847222</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I30" s="3">
         <v>44882.39387393519</v>
       </c>
     </row>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -40,25 +40,31 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>Mashrab</t>
-  </si>
-  <si>
-    <t>+998946775454</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: sinadigan narsa bor COURIER: Sotildi</t>
-  </si>
-  <si>
-    <t>SOLD</t>
-  </si>
-  <si>
-    <t>Baxrom</t>
-  </si>
-  <si>
-    <t>+998936979876</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: klient1 COURIER: Sotildi</t>
+    <t>vcxvcvcxv</t>
+  </si>
+  <si>
+    <t>+998939950036</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: fdsfdsf</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>+998939950202</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: undefined</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 232</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -502,16 +508,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>70000</v>
+        <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>19536</v>
+        <v>3434</v>
       </c>
       <c r="H2" s="3">
-        <v>44881.27319835648</v>
+        <v>44882.50939576389</v>
       </c>
       <c r="I2" s="3">
-        <v>44881.46914159722</v>
+        <v>44882.51629447917</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,13 +540,13 @@
         <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>10656</v>
+        <v>557577</v>
       </c>
       <c r="H3" s="3">
-        <v>44881.271496030095</v>
+        <v>44882.511876793986</v>
       </c>
       <c r="I3" s="3">
-        <v>44881.279108414354</v>
+        <v>44882.51630575232</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -563,13 +569,100 @@
         <v>50000</v>
       </c>
       <c r="G4" s="2">
-        <v>773256</v>
+        <v>557577</v>
       </c>
       <c r="H4" s="3">
-        <v>44881.3988674537</v>
+        <v>44882.511935208335</v>
       </c>
       <c r="I4" s="3">
-        <v>44881.46670815972</v>
+        <v>44882.51632061343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>557577</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44882.51194377315</v>
+      </c>
+      <c r="I5" s="3">
+        <v>44882.51632913195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="2">
+        <v>557577</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44882.51195315972</v>
+      </c>
+      <c r="I6" s="3">
+        <v>44882.51633701389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>433443</v>
+      </c>
+      <c r="H7" s="3">
+        <v>44882.51458509259</v>
+      </c>
+      <c r="I7" s="3">
+        <v>44882.51634814814</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orders.xlsx
+++ b/server/files/orders.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -40,31 +40,46 @@
     <t>O'zgartirilgan sana</t>
   </si>
   <si>
-    <t>vcxvcvcxv</t>
+    <t>Bekzod</t>
+  </si>
+  <si>
+    <t>+998935231456</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: ksjfdfk</t>
+  </si>
+  <si>
+    <t>ACCEPTED</t>
+  </si>
+  <si>
+    <t>Anvar</t>
   </si>
   <si>
     <t>+998939950036</t>
   </si>
   <si>
-    <t>STORE_OWNER: fdsfdsf</t>
-  </si>
-  <si>
-    <t>ACCEPTED</t>
-  </si>
-  <si>
-    <t>recipient</t>
-  </si>
-  <si>
-    <t>+998939950202</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: undefined</t>
-  </si>
-  <si>
-    <t>ssss</t>
-  </si>
-  <si>
-    <t>STORE_OWNER: 232</t>
+    <t>STORE_OWNER: karam</t>
+  </si>
+  <si>
+    <t>ssssfsdf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 3232</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>sssfdsf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 34334</t>
+  </si>
+  <si>
+    <t>ssdfdsf</t>
+  </si>
+  <si>
+    <t>STORE_OWNER: 3443</t>
   </si>
 </sst>
 </file>
@@ -453,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="20" customWidth="1"/>
@@ -511,13 +526,13 @@
         <v>50000</v>
       </c>
       <c r="G2" s="2">
-        <v>3434</v>
+        <v>50101</v>
       </c>
       <c r="H2" s="3">
-        <v>44882.50939576389</v>
+        <v>44883.216351759256</v>
       </c>
       <c r="I2" s="3">
-        <v>44882.51629447917</v>
+        <v>44883.2171084375</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -540,13 +555,13 @@
         <v>50000</v>
       </c>
       <c r="G3" s="2">
-        <v>557577</v>
+        <v>18000000</v>
       </c>
       <c r="H3" s="3">
-        <v>44882.511876793986</v>
+        <v>44883.216351759256</v>
       </c>
       <c r="I3" s="3">
-        <v>44882.51630575232</v>
+        <v>44883.21711907408</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -554,28 +569,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>50000</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>557577</v>
+        <v>578897</v>
       </c>
       <c r="H4" s="3">
-        <v>44882.511935208335</v>
+        <v>44883.228019780094</v>
       </c>
       <c r="I4" s="3">
-        <v>44882.51632061343</v>
+        <v>44883.228020462964</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -583,28 +595,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>50000</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
-        <v>557577</v>
+        <v>433868</v>
       </c>
       <c r="H5" s="3">
-        <v>44882.51194377315</v>
+        <v>44883.228019780094</v>
       </c>
       <c r="I5" s="3">
-        <v>44882.51632913195</v>
+        <v>44883.22802060185</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -612,57 +621,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>50000</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
-        <v>557577</v>
+        <v>4441</v>
       </c>
       <c r="H6" s="3">
-        <v>44882.51195315972</v>
+        <v>44883.228019780094</v>
       </c>
       <c r="I6" s="3">
-        <v>44882.51633701389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G7" s="2">
-        <v>433443</v>
-      </c>
-      <c r="H7" s="3">
-        <v>44882.51458509259</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44882.51634814814</v>
+        <v>44883.22802083333</v>
       </c>
     </row>
   </sheetData>
